--- a/1test1.xlsx
+++ b/1test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konradfirley/Desktop/Software-Algoritme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannes\PycharmProjects\Software-Algoritmus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B267937D-EDC2-3441-9AAE-E5F3F00D7B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE8C2AE-743D-4757-BE57-FE0A129822DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{D59364FF-812E-E944-B25D-D0A91C4D28DF}"/>
+    <workbookView xWindow="3075" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{D59364FF-812E-E944-B25D-D0A91C4D28DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -410,9 +410,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -420,7 +420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123</v>
       </c>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>124</v>
       </c>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>126</v>
       </c>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>127</v>
       </c>
